--- a/data/5283.xlsx
+++ b/data/5283.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I688"/>
+  <dimension ref="A1:I689"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24460,6 +24460,41 @@
         <v>2494800</v>
       </c>
     </row>
+    <row r="689">
+      <c r="A689" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B689" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C689" t="inlineStr">
+        <is>
+          <t>5283</t>
+        </is>
+      </c>
+      <c r="D689" t="inlineStr">
+        <is>
+          <t>EWINT</t>
+        </is>
+      </c>
+      <c r="E689" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F689" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="G689" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H689" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="I689" t="n">
+        <v>1142900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5283.xlsx
+++ b/data/5283.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I689"/>
+  <dimension ref="A1:I690"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24495,6 +24495,41 @@
         <v>1142900</v>
       </c>
     </row>
+    <row r="690">
+      <c r="A690" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B690" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C690" t="inlineStr">
+        <is>
+          <t>5283</t>
+        </is>
+      </c>
+      <c r="D690" t="inlineStr">
+        <is>
+          <t>EWINT</t>
+        </is>
+      </c>
+      <c r="E690" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="F690" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G690" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="H690" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="I690" t="n">
+        <v>1960100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5283.xlsx
+++ b/data/5283.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I690"/>
+  <dimension ref="A1:I691"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24530,6 +24530,41 @@
         <v>1960100</v>
       </c>
     </row>
+    <row r="691">
+      <c r="A691" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B691" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C691" t="inlineStr">
+        <is>
+          <t>5283</t>
+        </is>
+      </c>
+      <c r="D691" t="inlineStr">
+        <is>
+          <t>EWINT</t>
+        </is>
+      </c>
+      <c r="E691" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F691" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="G691" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="H691" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="I691" t="n">
+        <v>2733000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5283.xlsx
+++ b/data/5283.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I691"/>
+  <dimension ref="A1:I692"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24565,6 +24565,41 @@
         <v>2733000</v>
       </c>
     </row>
+    <row r="692">
+      <c r="A692" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B692" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C692" t="inlineStr">
+        <is>
+          <t>5283</t>
+        </is>
+      </c>
+      <c r="D692" t="inlineStr">
+        <is>
+          <t>EWINT</t>
+        </is>
+      </c>
+      <c r="E692" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="F692" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="G692" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="H692" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="I692" t="n">
+        <v>2046800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5283.xlsx
+++ b/data/5283.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I692"/>
+  <dimension ref="A1:I693"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24600,6 +24600,41 @@
         <v>2046800</v>
       </c>
     </row>
+    <row r="693">
+      <c r="A693" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B693" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C693" t="inlineStr">
+        <is>
+          <t>5283</t>
+        </is>
+      </c>
+      <c r="D693" t="inlineStr">
+        <is>
+          <t>EWINT</t>
+        </is>
+      </c>
+      <c r="E693" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="F693" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="G693" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="H693" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="I693" t="n">
+        <v>719500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5283.xlsx
+++ b/data/5283.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I693"/>
+  <dimension ref="A1:I694"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24635,6 +24635,41 @@
         <v>719500</v>
       </c>
     </row>
+    <row r="694">
+      <c r="A694" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B694" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C694" t="inlineStr">
+        <is>
+          <t>5283</t>
+        </is>
+      </c>
+      <c r="D694" t="inlineStr">
+        <is>
+          <t>EWINT</t>
+        </is>
+      </c>
+      <c r="E694" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="F694" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="G694" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="H694" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="I694" t="n">
+        <v>1159100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5283.xlsx
+++ b/data/5283.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I694"/>
+  <dimension ref="A1:I695"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24670,6 +24670,41 @@
         <v>1159100</v>
       </c>
     </row>
+    <row r="695">
+      <c r="A695" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B695" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C695" t="inlineStr">
+        <is>
+          <t>5283</t>
+        </is>
+      </c>
+      <c r="D695" t="inlineStr">
+        <is>
+          <t>EWINT</t>
+        </is>
+      </c>
+      <c r="E695" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="F695" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="G695" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="H695" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="I695" t="n">
+        <v>1924800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5283.xlsx
+++ b/data/5283.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I695"/>
+  <dimension ref="A1:I696"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24705,6 +24705,41 @@
         <v>1924800</v>
       </c>
     </row>
+    <row r="696">
+      <c r="A696" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B696" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C696" t="inlineStr">
+        <is>
+          <t>5283</t>
+        </is>
+      </c>
+      <c r="D696" t="inlineStr">
+        <is>
+          <t>EWINT</t>
+        </is>
+      </c>
+      <c r="E696" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="F696" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="G696" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="H696" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="I696" t="n">
+        <v>1947500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5283.xlsx
+++ b/data/5283.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I696"/>
+  <dimension ref="A1:I697"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24740,6 +24740,41 @@
         <v>1947500</v>
       </c>
     </row>
+    <row r="697">
+      <c r="A697" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B697" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C697" t="inlineStr">
+        <is>
+          <t>5283</t>
+        </is>
+      </c>
+      <c r="D697" t="inlineStr">
+        <is>
+          <t>EWINT</t>
+        </is>
+      </c>
+      <c r="E697" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="F697" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="G697" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="H697" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="I697" t="n">
+        <v>617900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5283.xlsx
+++ b/data/5283.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I697"/>
+  <dimension ref="A1:I698"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24775,6 +24775,41 @@
         <v>617900</v>
       </c>
     </row>
+    <row r="698">
+      <c r="A698" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B698" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C698" t="inlineStr">
+        <is>
+          <t>5283</t>
+        </is>
+      </c>
+      <c r="D698" t="inlineStr">
+        <is>
+          <t>EWINT</t>
+        </is>
+      </c>
+      <c r="E698" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F698" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G698" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="H698" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="I698" t="n">
+        <v>3054300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5283.xlsx
+++ b/data/5283.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I698"/>
+  <dimension ref="A1:I699"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24810,6 +24810,41 @@
         <v>3054300</v>
       </c>
     </row>
+    <row r="699">
+      <c r="A699" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B699" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C699" t="inlineStr">
+        <is>
+          <t>5283</t>
+        </is>
+      </c>
+      <c r="D699" t="inlineStr">
+        <is>
+          <t>EWINT</t>
+        </is>
+      </c>
+      <c r="E699" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="F699" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="G699" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="H699" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I699" t="n">
+        <v>2142800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5283.xlsx
+++ b/data/5283.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I699"/>
+  <dimension ref="A1:I700"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24845,6 +24845,41 @@
         <v>2142800</v>
       </c>
     </row>
+    <row r="700">
+      <c r="A700" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B700" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C700" t="inlineStr">
+        <is>
+          <t>5283</t>
+        </is>
+      </c>
+      <c r="D700" t="inlineStr">
+        <is>
+          <t>EWINT</t>
+        </is>
+      </c>
+      <c r="E700" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="F700" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="G700" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="H700" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="I700" t="n">
+        <v>707700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5283.xlsx
+++ b/data/5283.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I700"/>
+  <dimension ref="A1:I702"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24880,6 +24880,76 @@
         <v>707700</v>
       </c>
     </row>
+    <row r="701">
+      <c r="A701" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B701" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C701" t="inlineStr">
+        <is>
+          <t>5283</t>
+        </is>
+      </c>
+      <c r="D701" t="inlineStr">
+        <is>
+          <t>EWINT</t>
+        </is>
+      </c>
+      <c r="E701" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F701" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="G701" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="H701" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="I701" t="n">
+        <v>1622200</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B702" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C702" t="inlineStr">
+        <is>
+          <t>5283</t>
+        </is>
+      </c>
+      <c r="D702" t="inlineStr">
+        <is>
+          <t>EWINT</t>
+        </is>
+      </c>
+      <c r="E702" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="F702" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="G702" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="H702" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="I702" t="n">
+        <v>2972300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5283.xlsx
+++ b/data/5283.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I702"/>
+  <dimension ref="A1:I704"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24950,6 +24950,76 @@
         <v>2972300</v>
       </c>
     </row>
+    <row r="703">
+      <c r="A703" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B703" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C703" t="inlineStr">
+        <is>
+          <t>5283</t>
+        </is>
+      </c>
+      <c r="D703" t="inlineStr">
+        <is>
+          <t>EWINT</t>
+        </is>
+      </c>
+      <c r="E703" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="F703" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="G703" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="H703" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="I703" t="n">
+        <v>1503800</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B704" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C704" t="inlineStr">
+        <is>
+          <t>5283</t>
+        </is>
+      </c>
+      <c r="D704" t="inlineStr">
+        <is>
+          <t>EWINT</t>
+        </is>
+      </c>
+      <c r="E704" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="F704" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="G704" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="H704" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="I704" t="n">
+        <v>1411500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5283.xlsx
+++ b/data/5283.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I704"/>
+  <dimension ref="A1:I705"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25020,6 +25020,41 @@
         <v>1411500</v>
       </c>
     </row>
+    <row r="705">
+      <c r="A705" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B705" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C705" t="inlineStr">
+        <is>
+          <t>5283</t>
+        </is>
+      </c>
+      <c r="D705" t="inlineStr">
+        <is>
+          <t>EWINT</t>
+        </is>
+      </c>
+      <c r="E705" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F705" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="G705" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="H705" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="I705" t="n">
+        <v>1398700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5283.xlsx
+++ b/data/5283.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I705"/>
+  <dimension ref="A1:I706"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25055,6 +25055,41 @@
         <v>1398700</v>
       </c>
     </row>
+    <row r="706">
+      <c r="A706" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B706" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C706" t="inlineStr">
+        <is>
+          <t>5283</t>
+        </is>
+      </c>
+      <c r="D706" t="inlineStr">
+        <is>
+          <t>EWINT</t>
+        </is>
+      </c>
+      <c r="E706" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="F706" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="G706" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="H706" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="I706" t="n">
+        <v>2127200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5283.xlsx
+++ b/data/5283.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I706"/>
+  <dimension ref="A1:I707"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25090,6 +25090,41 @@
         <v>2127200</v>
       </c>
     </row>
+    <row r="707">
+      <c r="A707" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B707" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C707" t="inlineStr">
+        <is>
+          <t>5283</t>
+        </is>
+      </c>
+      <c r="D707" t="inlineStr">
+        <is>
+          <t>EWINT</t>
+        </is>
+      </c>
+      <c r="E707" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="F707" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="G707" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="H707" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="I707" t="n">
+        <v>3071000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5283.xlsx
+++ b/data/5283.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I707"/>
+  <dimension ref="A1:I708"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25125,6 +25125,41 @@
         <v>3071000</v>
       </c>
     </row>
+    <row r="708">
+      <c r="A708" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B708" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C708" t="inlineStr">
+        <is>
+          <t>5283</t>
+        </is>
+      </c>
+      <c r="D708" t="inlineStr">
+        <is>
+          <t>EWINT</t>
+        </is>
+      </c>
+      <c r="E708" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F708" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="G708" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="H708" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="I708" t="n">
+        <v>4962000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5283.xlsx
+++ b/data/5283.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I708"/>
+  <dimension ref="A1:I710"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25160,6 +25160,76 @@
         <v>4962000</v>
       </c>
     </row>
+    <row r="709">
+      <c r="A709" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B709" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C709" t="inlineStr">
+        <is>
+          <t>5283</t>
+        </is>
+      </c>
+      <c r="D709" t="inlineStr">
+        <is>
+          <t>EWINT</t>
+        </is>
+      </c>
+      <c r="E709" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="F709" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="G709" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="H709" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="I709" t="n">
+        <v>4481200</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B710" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C710" t="inlineStr">
+        <is>
+          <t>5283</t>
+        </is>
+      </c>
+      <c r="D710" t="inlineStr">
+        <is>
+          <t>EWINT</t>
+        </is>
+      </c>
+      <c r="E710" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="F710" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="G710" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="H710" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="I710" t="n">
+        <v>3043400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5283.xlsx
+++ b/data/5283.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I710"/>
+  <dimension ref="A1:I711"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25230,6 +25230,41 @@
         <v>3043400</v>
       </c>
     </row>
+    <row r="711">
+      <c r="A711" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B711" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C711" t="inlineStr">
+        <is>
+          <t>5283</t>
+        </is>
+      </c>
+      <c r="D711" t="inlineStr">
+        <is>
+          <t>EWINT</t>
+        </is>
+      </c>
+      <c r="E711" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F711" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="G711" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="H711" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="I711" t="n">
+        <v>4324700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5283.xlsx
+++ b/data/5283.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I711"/>
+  <dimension ref="A1:I712"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25265,6 +25265,41 @@
         <v>4324700</v>
       </c>
     </row>
+    <row r="712">
+      <c r="A712" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B712" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C712" t="inlineStr">
+        <is>
+          <t>5283</t>
+        </is>
+      </c>
+      <c r="D712" t="inlineStr">
+        <is>
+          <t>EWINT</t>
+        </is>
+      </c>
+      <c r="E712" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F712" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="G712" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H712" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="I712" t="n">
+        <v>5286600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5283.xlsx
+++ b/data/5283.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I712"/>
+  <dimension ref="A1:I721"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22747,11 +22747,11 @@
     </row>
     <row r="640">
       <c r="A640" t="n">
-        <v>1574985600</v>
+        <v>1574035200</v>
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>2019-11-29</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="C640" t="inlineStr">
@@ -22765,28 +22765,28 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>0.9350000000000001</v>
+        <v>0.78</v>
       </c>
       <c r="F640" t="n">
-        <v>0.9350000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="G640" t="n">
-        <v>0.905</v>
+        <v>0.78</v>
       </c>
       <c r="H640" t="n">
-        <v>0.92</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="I640" t="n">
-        <v>2658400</v>
+        <v>1901400</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="n">
-        <v>1575244800</v>
+        <v>1574121600</v>
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>2019-12-02</t>
+          <t>2019-11-19</t>
         </is>
       </c>
       <c r="C641" t="inlineStr">
@@ -22800,28 +22800,28 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>0.925</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="F641" t="n">
-        <v>0.93</v>
+        <v>0.83</v>
       </c>
       <c r="G641" t="n">
-        <v>0.915</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="H641" t="n">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="I641" t="n">
-        <v>887500</v>
+        <v>2214600</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="n">
-        <v>1575331200</v>
+        <v>1574208000</v>
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="C642" t="inlineStr">
@@ -22835,28 +22835,28 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>0.925</v>
+        <v>0.83</v>
       </c>
       <c r="F642" t="n">
-        <v>0.925</v>
+        <v>0.83</v>
       </c>
       <c r="G642" t="n">
-        <v>0.91</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="H642" t="n">
-        <v>0.92</v>
+        <v>0.825</v>
       </c>
       <c r="I642" t="n">
-        <v>762800</v>
+        <v>1948900</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="n">
-        <v>1575417600</v>
+        <v>1574294400</v>
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="C643" t="inlineStr">
@@ -22870,28 +22870,28 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>0.915</v>
+        <v>0.825</v>
       </c>
       <c r="F643" t="n">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="G643" t="n">
-        <v>0.91</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="H643" t="n">
-        <v>0.915</v>
+        <v>0.82</v>
       </c>
       <c r="I643" t="n">
-        <v>751400</v>
+        <v>766900</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="n">
-        <v>1575504000</v>
+        <v>1574380800</v>
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>2019-12-05</t>
+          <t>2019-11-22</t>
         </is>
       </c>
       <c r="C644" t="inlineStr">
@@ -22905,28 +22905,28 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>0.91</v>
+        <v>0.82</v>
       </c>
       <c r="F644" t="n">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="G644" t="n">
-        <v>0.91</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="H644" t="n">
-        <v>0.92</v>
+        <v>0.825</v>
       </c>
       <c r="I644" t="n">
-        <v>2132200</v>
+        <v>796900</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="n">
-        <v>1575590400</v>
+        <v>1574640000</v>
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-11-25</t>
         </is>
       </c>
       <c r="C645" t="inlineStr">
@@ -22940,28 +22940,28 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>0.92</v>
+        <v>0.825</v>
       </c>
       <c r="F645" t="n">
-        <v>0.92</v>
+        <v>0.945</v>
       </c>
       <c r="G645" t="n">
-        <v>0.915</v>
+        <v>0.825</v>
       </c>
       <c r="H645" t="n">
-        <v>0.915</v>
+        <v>0.91</v>
       </c>
       <c r="I645" t="n">
-        <v>1665900</v>
+        <v>8688500</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="n">
-        <v>1575849600</v>
+        <v>1574726400</v>
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>2019-12-09</t>
+          <t>2019-11-26</t>
         </is>
       </c>
       <c r="C646" t="inlineStr">
@@ -22975,28 +22975,28 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="F646" t="n">
-        <v>0.975</v>
+        <v>0.93</v>
       </c>
       <c r="G646" t="n">
-        <v>0.92</v>
+        <v>0.9</v>
       </c>
       <c r="H646" t="n">
-        <v>0.975</v>
+        <v>0.9</v>
       </c>
       <c r="I646" t="n">
-        <v>5370400</v>
+        <v>4694200</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="n">
-        <v>1575936000</v>
+        <v>1574812800</v>
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-11-27</t>
         </is>
       </c>
       <c r="C647" t="inlineStr">
@@ -23010,28 +23010,28 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>0.98</v>
+        <v>0.905</v>
       </c>
       <c r="F647" t="n">
-        <v>0.99</v>
+        <v>0.915</v>
       </c>
       <c r="G647" t="n">
-        <v>0.965</v>
+        <v>0.9</v>
       </c>
       <c r="H647" t="n">
-        <v>0.97</v>
+        <v>0.905</v>
       </c>
       <c r="I647" t="n">
-        <v>2690800</v>
+        <v>963500</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="n">
-        <v>1576022400</v>
+        <v>1574899200</v>
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="C648" t="inlineStr">
@@ -23045,28 +23045,28 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>0.975</v>
+        <v>0.905</v>
       </c>
       <c r="F648" t="n">
-        <v>1.06</v>
+        <v>0.93</v>
       </c>
       <c r="G648" t="n">
-        <v>0.97</v>
+        <v>0.905</v>
       </c>
       <c r="H648" t="n">
-        <v>1.04</v>
+        <v>0.93</v>
       </c>
       <c r="I648" t="n">
-        <v>12169900</v>
+        <v>3301800</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="n">
-        <v>1576108800</v>
+        <v>1574985600</v>
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-11-29</t>
         </is>
       </c>
       <c r="C649" t="inlineStr">
@@ -23080,28 +23080,28 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>1.05</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="F649" t="n">
-        <v>1.14</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="G649" t="n">
-        <v>0.965</v>
+        <v>0.905</v>
       </c>
       <c r="H649" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="I649" t="n">
-        <v>21913900</v>
+        <v>2658400</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="n">
-        <v>1576195200</v>
+        <v>1575244800</v>
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-02</t>
         </is>
       </c>
       <c r="C650" t="inlineStr">
@@ -23115,28 +23115,28 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>1.02</v>
+        <v>0.925</v>
       </c>
       <c r="F650" t="n">
-        <v>1.04</v>
+        <v>0.93</v>
       </c>
       <c r="G650" t="n">
-        <v>0.98</v>
+        <v>0.915</v>
       </c>
       <c r="H650" t="n">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="I650" t="n">
-        <v>7803500</v>
+        <v>887500</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="n">
-        <v>1576454400</v>
+        <v>1575331200</v>
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>2019-12-16</t>
+          <t>2019-12-03</t>
         </is>
       </c>
       <c r="C651" t="inlineStr">
@@ -23150,28 +23150,28 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="F651" t="n">
-        <v>1.01</v>
+        <v>0.925</v>
       </c>
       <c r="G651" t="n">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="H651" t="n">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="I651" t="n">
-        <v>6267000</v>
+        <v>762800</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="n">
-        <v>1576540800</v>
+        <v>1575417600</v>
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="C652" t="inlineStr">
@@ -23185,28 +23185,28 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>0.975</v>
+        <v>0.915</v>
       </c>
       <c r="F652" t="n">
-        <v>1.02</v>
+        <v>0.925</v>
       </c>
       <c r="G652" t="n">
-        <v>0.96</v>
+        <v>0.91</v>
       </c>
       <c r="H652" t="n">
-        <v>1.01</v>
+        <v>0.915</v>
       </c>
       <c r="I652" t="n">
-        <v>9058000</v>
+        <v>751400</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" t="n">
-        <v>1576627200</v>
+        <v>1575504000</v>
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-05</t>
         </is>
       </c>
       <c r="C653" t="inlineStr">
@@ -23220,28 +23220,28 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>1.01</v>
+        <v>0.91</v>
       </c>
       <c r="F653" t="n">
-        <v>1.03</v>
+        <v>0.925</v>
       </c>
       <c r="G653" t="n">
-        <v>0.99</v>
+        <v>0.91</v>
       </c>
       <c r="H653" t="n">
-        <v>0.995</v>
+        <v>0.92</v>
       </c>
       <c r="I653" t="n">
-        <v>7034000</v>
+        <v>2132200</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" t="n">
-        <v>1576713600</v>
+        <v>1575590400</v>
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>2019-12-19</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="C654" t="inlineStr">
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>0.995</v>
+        <v>0.92</v>
       </c>
       <c r="F654" t="n">
-        <v>1.01</v>
+        <v>0.92</v>
       </c>
       <c r="G654" t="n">
-        <v>0.955</v>
+        <v>0.915</v>
       </c>
       <c r="H654" t="n">
-        <v>0.955</v>
+        <v>0.915</v>
       </c>
       <c r="I654" t="n">
-        <v>9963500</v>
+        <v>1665900</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" t="n">
-        <v>1576800000</v>
+        <v>1575849600</v>
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>2019-12-20</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="C655" t="inlineStr">
@@ -23290,28 +23290,28 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="F655" t="n">
         <v>0.975</v>
       </c>
       <c r="G655" t="n">
-        <v>0.915</v>
+        <v>0.92</v>
       </c>
       <c r="H655" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.975</v>
       </c>
       <c r="I655" t="n">
-        <v>12005100</v>
+        <v>5370400</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" t="n">
-        <v>1577059200</v>
+        <v>1575936000</v>
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>2019-12-23</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="C656" t="inlineStr">
@@ -23325,28 +23325,28 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="F656" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="G656" t="n">
-        <v>0.915</v>
+        <v>0.965</v>
       </c>
       <c r="H656" t="n">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="I656" t="n">
-        <v>2743100</v>
+        <v>2690800</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="n">
-        <v>1577145600</v>
+        <v>1576022400</v>
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>2019-12-24</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="C657" t="inlineStr">
@@ -23360,28 +23360,28 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>0.925</v>
+        <v>0.975</v>
       </c>
       <c r="F657" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="G657" t="n">
-        <v>0.915</v>
+        <v>0.97</v>
       </c>
       <c r="H657" t="n">
-        <v>0.92</v>
+        <v>1.04</v>
       </c>
       <c r="I657" t="n">
-        <v>3948600</v>
+        <v>12169900</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="n">
-        <v>1577318400</v>
+        <v>1576108800</v>
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>2019-12-26</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="C658" t="inlineStr">
@@ -23395,28 +23395,28 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>0.92</v>
+        <v>1.05</v>
       </c>
       <c r="F658" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.14</v>
       </c>
       <c r="G658" t="n">
-        <v>0.915</v>
+        <v>0.965</v>
       </c>
       <c r="H658" t="n">
-        <v>0.9350000000000001</v>
+        <v>1</v>
       </c>
       <c r="I658" t="n">
-        <v>3897900</v>
+        <v>21913900</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="n">
-        <v>1577404800</v>
+        <v>1576195200</v>
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>2019-12-27</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="C659" t="inlineStr">
@@ -23430,28 +23430,28 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>0.9350000000000001</v>
+        <v>1.02</v>
       </c>
       <c r="F659" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.04</v>
       </c>
       <c r="G659" t="n">
-        <v>0.925</v>
+        <v>0.98</v>
       </c>
       <c r="H659" t="n">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="I659" t="n">
-        <v>1828900</v>
+        <v>7803500</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="n">
-        <v>1577664000</v>
+        <v>1576454400</v>
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>2019-12-30</t>
+          <t>2019-12-16</t>
         </is>
       </c>
       <c r="C660" t="inlineStr">
@@ -23465,28 +23465,28 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="F660" t="n">
-        <v>0.9350000000000001</v>
+        <v>1.01</v>
       </c>
       <c r="G660" t="n">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="H660" t="n">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
       <c r="I660" t="n">
-        <v>3988200</v>
+        <v>6267000</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="n">
-        <v>1577750400</v>
+        <v>1576540800</v>
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="C661" t="inlineStr">
@@ -23500,28 +23500,28 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>0.92</v>
+        <v>0.975</v>
       </c>
       <c r="F661" t="n">
-        <v>0.925</v>
+        <v>1.02</v>
       </c>
       <c r="G661" t="n">
-        <v>0.915</v>
+        <v>0.96</v>
       </c>
       <c r="H661" t="n">
-        <v>0.92</v>
+        <v>1.01</v>
       </c>
       <c r="I661" t="n">
-        <v>1440100</v>
+        <v>9058000</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="n">
-        <v>1577923200</v>
+        <v>1576627200</v>
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>2020-01-02</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="C662" t="inlineStr">
@@ -23535,28 +23535,28 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>0.92</v>
+        <v>1.01</v>
       </c>
       <c r="F662" t="n">
-        <v>0.98</v>
+        <v>1.03</v>
       </c>
       <c r="G662" t="n">
-        <v>0.92</v>
+        <v>0.99</v>
       </c>
       <c r="H662" t="n">
-        <v>0.965</v>
+        <v>0.995</v>
       </c>
       <c r="I662" t="n">
-        <v>8524700</v>
+        <v>7034000</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="n">
-        <v>1578009600</v>
+        <v>1576713600</v>
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>2020-01-03</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="C663" t="inlineStr">
@@ -23570,28 +23570,28 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>0.97</v>
+        <v>0.995</v>
       </c>
       <c r="F663" t="n">
-        <v>0.975</v>
+        <v>1.01</v>
       </c>
       <c r="G663" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.955</v>
       </c>
       <c r="H663" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.955</v>
       </c>
       <c r="I663" t="n">
-        <v>3725500</v>
+        <v>9963500</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="n">
-        <v>1578268800</v>
+        <v>1576800000</v>
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>2020-01-06</t>
+          <t>2019-12-20</t>
         </is>
       </c>
       <c r="C664" t="inlineStr">
@@ -23605,28 +23605,28 @@
         </is>
       </c>
       <c r="E664" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="F664" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="G664" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="H664" t="n">
         <v>0.9399999999999999</v>
       </c>
-      <c r="F664" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="G664" t="n">
-        <v>0.925</v>
-      </c>
-      <c r="H664" t="n">
-        <v>0.93</v>
-      </c>
       <c r="I664" t="n">
-        <v>1407300</v>
+        <v>12005100</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="n">
-        <v>1578355200</v>
+        <v>1577059200</v>
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>2020-01-07</t>
+          <t>2019-12-23</t>
         </is>
       </c>
       <c r="C665" t="inlineStr">
@@ -23640,28 +23640,28 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F665" t="n">
         <v>0.9399999999999999</v>
       </c>
       <c r="G665" t="n">
-        <v>0.92</v>
+        <v>0.915</v>
       </c>
       <c r="H665" t="n">
         <v>0.93</v>
       </c>
       <c r="I665" t="n">
-        <v>1790900</v>
+        <v>2743100</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="n">
-        <v>1578441600</v>
+        <v>1577145600</v>
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>2020-01-08</t>
+          <t>2019-12-24</t>
         </is>
       </c>
       <c r="C666" t="inlineStr">
@@ -23678,25 +23678,25 @@
         <v>0.925</v>
       </c>
       <c r="F666" t="n">
-        <v>0.925</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G666" t="n">
-        <v>0.86</v>
+        <v>0.915</v>
       </c>
       <c r="H666" t="n">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="I666" t="n">
-        <v>7083800</v>
+        <v>3948600</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="n">
-        <v>1578528000</v>
+        <v>1577318400</v>
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>2020-01-09</t>
+          <t>2019-12-26</t>
         </is>
       </c>
       <c r="C667" t="inlineStr">
@@ -23710,28 +23710,28 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>0.9</v>
+        <v>0.92</v>
       </c>
       <c r="F667" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G667" t="n">
-        <v>0.9</v>
+        <v>0.915</v>
       </c>
       <c r="H667" t="n">
-        <v>0.93</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="I667" t="n">
-        <v>2726700</v>
+        <v>3897900</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="n">
-        <v>1578614400</v>
+        <v>1577404800</v>
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>2020-01-10</t>
+          <t>2019-12-27</t>
         </is>
       </c>
       <c r="C668" t="inlineStr">
@@ -23745,28 +23745,28 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>0.93</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="F668" t="n">
-        <v>0.9350000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G668" t="n">
-        <v>0.915</v>
+        <v>0.925</v>
       </c>
       <c r="H668" t="n">
-        <v>0.9350000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="I668" t="n">
-        <v>1040700</v>
+        <v>1828900</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" t="n">
-        <v>1578873600</v>
+        <v>1577664000</v>
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2019-12-30</t>
         </is>
       </c>
       <c r="C669" t="inlineStr">
@@ -23780,28 +23780,28 @@
         </is>
       </c>
       <c r="E669" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="F669" t="n">
         <v>0.9350000000000001</v>
       </c>
-      <c r="F669" t="n">
-        <v>0.945</v>
-      </c>
       <c r="G669" t="n">
-        <v>0.925</v>
+        <v>0.92</v>
       </c>
       <c r="H669" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="I669" t="n">
-        <v>686300</v>
+        <v>3988200</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="n">
-        <v>1578960000</v>
+        <v>1577750400</v>
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>2020-01-14</t>
+          <t>2019-12-31</t>
         </is>
       </c>
       <c r="C670" t="inlineStr">
@@ -23815,28 +23815,28 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>0.945</v>
+        <v>0.92</v>
       </c>
       <c r="F670" t="n">
-        <v>0.945</v>
+        <v>0.925</v>
       </c>
       <c r="G670" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="H670" t="n">
         <v>0.92</v>
       </c>
-      <c r="H670" t="n">
-        <v>0.93</v>
-      </c>
       <c r="I670" t="n">
-        <v>770100</v>
+        <v>1440100</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" t="n">
-        <v>1579046400</v>
+        <v>1577923200</v>
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>2020-01-15</t>
+          <t>2020-01-02</t>
         </is>
       </c>
       <c r="C671" t="inlineStr">
@@ -23850,28 +23850,28 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="F671" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="G671" t="n">
-        <v>0.915</v>
+        <v>0.92</v>
       </c>
       <c r="H671" t="n">
-        <v>0.93</v>
+        <v>0.965</v>
       </c>
       <c r="I671" t="n">
-        <v>497200</v>
+        <v>8524700</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" t="n">
-        <v>1579132800</v>
+        <v>1578009600</v>
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>2020-01-16</t>
+          <t>2020-01-03</t>
         </is>
       </c>
       <c r="C672" t="inlineStr">
@@ -23885,28 +23885,28 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>0.925</v>
+        <v>0.97</v>
       </c>
       <c r="F672" t="n">
-        <v>0.93</v>
+        <v>0.975</v>
       </c>
       <c r="G672" t="n">
-        <v>0.915</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="H672" t="n">
-        <v>0.925</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I672" t="n">
-        <v>425700</v>
+        <v>3725500</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" t="n">
-        <v>1579219200</v>
+        <v>1578268800</v>
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>2020-01-17</t>
+          <t>2020-01-06</t>
         </is>
       </c>
       <c r="C673" t="inlineStr">
@@ -23920,28 +23920,28 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F673" t="n">
-        <v>0.945</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G673" t="n">
         <v>0.925</v>
       </c>
       <c r="H673" t="n">
-        <v>0.9350000000000001</v>
+        <v>0.93</v>
       </c>
       <c r="I673" t="n">
-        <v>985400</v>
+        <v>1407300</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" t="n">
-        <v>1579478400</v>
+        <v>1578355200</v>
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>2020-01-20</t>
+          <t>2020-01-07</t>
         </is>
       </c>
       <c r="C674" t="inlineStr">
@@ -23958,25 +23958,25 @@
         <v>0.93</v>
       </c>
       <c r="F674" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G674" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="H674" t="n">
         <v>0.93</v>
       </c>
-      <c r="G674" t="n">
-        <v>0.915</v>
-      </c>
-      <c r="H674" t="n">
-        <v>0.92</v>
-      </c>
       <c r="I674" t="n">
-        <v>832700</v>
+        <v>1790900</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" t="n">
-        <v>1579564800</v>
+        <v>1578441600</v>
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>2020-01-21</t>
+          <t>2020-01-08</t>
         </is>
       </c>
       <c r="C675" t="inlineStr">
@@ -23990,28 +23990,28 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>0.92</v>
+        <v>0.925</v>
       </c>
       <c r="F675" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="G675" t="n">
-        <v>0.91</v>
+        <v>0.86</v>
       </c>
       <c r="H675" t="n">
-        <v>0.915</v>
+        <v>0.89</v>
       </c>
       <c r="I675" t="n">
-        <v>1894600</v>
+        <v>7083800</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="n">
-        <v>1579651200</v>
+        <v>1578528000</v>
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>2020-01-22</t>
+          <t>2020-01-09</t>
         </is>
       </c>
       <c r="C676" t="inlineStr">
@@ -24025,28 +24025,28 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>0.915</v>
+        <v>0.9</v>
       </c>
       <c r="F676" t="n">
-        <v>0.925</v>
+        <v>0.93</v>
       </c>
       <c r="G676" t="n">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="H676" t="n">
-        <v>0.915</v>
+        <v>0.93</v>
       </c>
       <c r="I676" t="n">
-        <v>1012700</v>
+        <v>2726700</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" t="n">
-        <v>1579737600</v>
+        <v>1578614400</v>
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>2020-01-23</t>
+          <t>2020-01-10</t>
         </is>
       </c>
       <c r="C677" t="inlineStr">
@@ -24060,28 +24060,28 @@
         </is>
       </c>
       <c r="E677" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="F677" t="n">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="G677" t="n">
         <v>0.915</v>
       </c>
-      <c r="F677" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="G677" t="n">
-        <v>0.91</v>
-      </c>
       <c r="H677" t="n">
-        <v>0.915</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="I677" t="n">
-        <v>1208100</v>
+        <v>1040700</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="n">
-        <v>1579824000</v>
+        <v>1578873600</v>
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>2020-01-24</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="C678" t="inlineStr">
@@ -24095,28 +24095,28 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>0.91</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="F678" t="n">
-        <v>0.92</v>
+        <v>0.945</v>
       </c>
       <c r="G678" t="n">
-        <v>0.86</v>
+        <v>0.925</v>
       </c>
       <c r="H678" t="n">
-        <v>0.9</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I678" t="n">
-        <v>3052300</v>
+        <v>686300</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" t="n">
-        <v>1580169600</v>
+        <v>1578960000</v>
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>2020-01-28</t>
+          <t>2020-01-14</t>
         </is>
       </c>
       <c r="C679" t="inlineStr">
@@ -24130,28 +24130,28 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>0.865</v>
+        <v>0.945</v>
       </c>
       <c r="F679" t="n">
-        <v>0.885</v>
+        <v>0.945</v>
       </c>
       <c r="G679" t="n">
-        <v>0.85</v>
+        <v>0.92</v>
       </c>
       <c r="H679" t="n">
-        <v>0.855</v>
+        <v>0.93</v>
       </c>
       <c r="I679" t="n">
-        <v>3918300</v>
+        <v>770100</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="n">
-        <v>1580256000</v>
+        <v>1579046400</v>
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>2020-01-29</t>
+          <t>2020-01-15</t>
         </is>
       </c>
       <c r="C680" t="inlineStr">
@@ -24165,28 +24165,28 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>0.85</v>
+        <v>0.93</v>
       </c>
       <c r="F680" t="n">
-        <v>0.865</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G680" t="n">
-        <v>0.85</v>
+        <v>0.915</v>
       </c>
       <c r="H680" t="n">
-        <v>0.86</v>
+        <v>0.93</v>
       </c>
       <c r="I680" t="n">
-        <v>1819500</v>
+        <v>497200</v>
       </c>
     </row>
     <row r="681">
       <c r="A681" t="n">
-        <v>1580342400</v>
+        <v>1579132800</v>
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>2020-01-30</t>
+          <t>2020-01-16</t>
         </is>
       </c>
       <c r="C681" t="inlineStr">
@@ -24200,28 +24200,28 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>0.86</v>
+        <v>0.925</v>
       </c>
       <c r="F681" t="n">
-        <v>0.86</v>
+        <v>0.93</v>
       </c>
       <c r="G681" t="n">
-        <v>0.775</v>
+        <v>0.915</v>
       </c>
       <c r="H681" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="I681" t="n">
-        <v>4480000</v>
+        <v>425700</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" t="n">
-        <v>1580428800</v>
+        <v>1579219200</v>
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>2020-01-31</t>
+          <t>2020-01-17</t>
         </is>
       </c>
       <c r="C682" t="inlineStr">
@@ -24235,28 +24235,28 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>0.78</v>
+        <v>0.93</v>
       </c>
       <c r="F682" t="n">
-        <v>0.805</v>
+        <v>0.945</v>
       </c>
       <c r="G682" t="n">
-        <v>0.725</v>
+        <v>0.925</v>
       </c>
       <c r="H682" t="n">
-        <v>0.75</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="I682" t="n">
-        <v>9801200</v>
+        <v>985400</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" t="n">
-        <v>1580688000</v>
+        <v>1579478400</v>
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>2020-02-03</t>
+          <t>2020-01-20</t>
         </is>
       </c>
       <c r="C683" t="inlineStr">
@@ -24270,28 +24270,28 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>0.72</v>
+        <v>0.93</v>
       </c>
       <c r="F683" t="n">
-        <v>0.75</v>
+        <v>0.93</v>
       </c>
       <c r="G683" t="n">
-        <v>0.7</v>
+        <v>0.915</v>
       </c>
       <c r="H683" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="I683" t="n">
-        <v>6053700</v>
+        <v>832700</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" t="n">
-        <v>1580774400</v>
+        <v>1579564800</v>
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>2020-02-04</t>
+          <t>2020-01-21</t>
         </is>
       </c>
       <c r="C684" t="inlineStr">
@@ -24305,28 +24305,28 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>0.755</v>
+        <v>0.92</v>
       </c>
       <c r="F684" t="n">
-        <v>0.795</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G684" t="n">
-        <v>0.75</v>
+        <v>0.91</v>
       </c>
       <c r="H684" t="n">
-        <v>0.795</v>
+        <v>0.915</v>
       </c>
       <c r="I684" t="n">
-        <v>6533500</v>
+        <v>1894600</v>
       </c>
     </row>
     <row r="685">
       <c r="A685" t="n">
-        <v>1580860800</v>
+        <v>1579651200</v>
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>2020-02-05</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="C685" t="inlineStr">
@@ -24340,28 +24340,28 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.915</v>
       </c>
       <c r="F685" t="n">
-        <v>0.83</v>
+        <v>0.925</v>
       </c>
       <c r="G685" t="n">
-        <v>0.805</v>
+        <v>0.91</v>
       </c>
       <c r="H685" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.915</v>
       </c>
       <c r="I685" t="n">
-        <v>2635700</v>
+        <v>1012700</v>
       </c>
     </row>
     <row r="686">
       <c r="A686" t="n">
-        <v>1580947200</v>
+        <v>1579737600</v>
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>2020-02-06</t>
+          <t>2020-01-23</t>
         </is>
       </c>
       <c r="C686" t="inlineStr">
@@ -24375,28 +24375,28 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.915</v>
       </c>
       <c r="F686" t="n">
-        <v>0.84</v>
+        <v>0.93</v>
       </c>
       <c r="G686" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.91</v>
       </c>
       <c r="H686" t="n">
-        <v>0.84</v>
+        <v>0.915</v>
       </c>
       <c r="I686" t="n">
-        <v>2171700</v>
+        <v>1208100</v>
       </c>
     </row>
     <row r="687">
       <c r="A687" t="n">
-        <v>1581033600</v>
+        <v>1579824000</v>
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>2020-02-07</t>
+          <t>2020-01-24</t>
         </is>
       </c>
       <c r="C687" t="inlineStr">
@@ -24410,28 +24410,28 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>0.84</v>
+        <v>0.91</v>
       </c>
       <c r="F687" t="n">
-        <v>0.84</v>
+        <v>0.92</v>
       </c>
       <c r="G687" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="H687" t="n">
-        <v>0.83</v>
+        <v>0.9</v>
       </c>
       <c r="I687" t="n">
-        <v>1757400</v>
+        <v>3052300</v>
       </c>
     </row>
     <row r="688">
       <c r="A688" t="n">
-        <v>1581292800</v>
+        <v>1580169600</v>
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>2020-02-10</t>
+          <t>2020-01-28</t>
         </is>
       </c>
       <c r="C688" t="inlineStr">
@@ -24445,28 +24445,28 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>0.825</v>
+        <v>0.865</v>
       </c>
       <c r="F688" t="n">
-        <v>0.825</v>
+        <v>0.885</v>
       </c>
       <c r="G688" t="n">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="H688" t="n">
-        <v>0.8</v>
+        <v>0.855</v>
       </c>
       <c r="I688" t="n">
-        <v>2494800</v>
+        <v>3918300</v>
       </c>
     </row>
     <row r="689">
       <c r="A689" t="n">
-        <v>1581379200</v>
+        <v>1580256000</v>
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>2020-02-11</t>
+          <t>2020-01-29</t>
         </is>
       </c>
       <c r="C689" t="inlineStr">
@@ -24480,28 +24480,28 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="F689" t="n">
-        <v>0.82</v>
+        <v>0.865</v>
       </c>
       <c r="G689" t="n">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="H689" t="n">
-        <v>0.805</v>
+        <v>0.86</v>
       </c>
       <c r="I689" t="n">
-        <v>1142900</v>
+        <v>1819500</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" t="n">
-        <v>1581465600</v>
+        <v>1580342400</v>
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>2020-02-12</t>
+          <t>2020-01-30</t>
         </is>
       </c>
       <c r="C690" t="inlineStr">
@@ -24515,28 +24515,28 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="F690" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="G690" t="n">
-        <v>0.79</v>
+        <v>0.775</v>
       </c>
       <c r="H690" t="n">
         <v>0.8100000000000001</v>
       </c>
       <c r="I690" t="n">
-        <v>1960100</v>
+        <v>4480000</v>
       </c>
     </row>
     <row r="691">
       <c r="A691" t="n">
-        <v>1581552000</v>
+        <v>1580428800</v>
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>2020-02-13</t>
+          <t>2020-01-31</t>
         </is>
       </c>
       <c r="C691" t="inlineStr">
@@ -24550,28 +24550,28 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>0.8</v>
+        <v>0.78</v>
       </c>
       <c r="F691" t="n">
-        <v>0.835</v>
+        <v>0.805</v>
       </c>
       <c r="G691" t="n">
-        <v>0.785</v>
+        <v>0.725</v>
       </c>
       <c r="H691" t="n">
-        <v>0.83</v>
+        <v>0.75</v>
       </c>
       <c r="I691" t="n">
-        <v>2733000</v>
+        <v>9801200</v>
       </c>
     </row>
     <row r="692">
       <c r="A692" t="n">
-        <v>1581638400</v>
+        <v>1580688000</v>
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-03</t>
         </is>
       </c>
       <c r="C692" t="inlineStr">
@@ -24585,28 +24585,28 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>0.83</v>
+        <v>0.72</v>
       </c>
       <c r="F692" t="n">
-        <v>0.84</v>
+        <v>0.75</v>
       </c>
       <c r="G692" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="H692" t="n">
-        <v>0.83</v>
+        <v>0.75</v>
       </c>
       <c r="I692" t="n">
-        <v>2046800</v>
+        <v>6053700</v>
       </c>
     </row>
     <row r="693">
       <c r="A693" t="n">
-        <v>1581897600</v>
+        <v>1580774400</v>
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>2020-02-17</t>
+          <t>2020-02-04</t>
         </is>
       </c>
       <c r="C693" t="inlineStr">
@@ -24620,28 +24620,28 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>0.825</v>
+        <v>0.755</v>
       </c>
       <c r="F693" t="n">
-        <v>0.845</v>
+        <v>0.795</v>
       </c>
       <c r="G693" t="n">
-        <v>0.825</v>
+        <v>0.75</v>
       </c>
       <c r="H693" t="n">
-        <v>0.83</v>
+        <v>0.795</v>
       </c>
       <c r="I693" t="n">
-        <v>719500</v>
+        <v>6533500</v>
       </c>
     </row>
     <row r="694">
       <c r="A694" t="n">
-        <v>1581984000</v>
+        <v>1580860800</v>
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>2020-02-18</t>
+          <t>2020-02-05</t>
         </is>
       </c>
       <c r="C694" t="inlineStr">
@@ -24655,28 +24655,28 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>0.835</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F694" t="n">
-        <v>0.835</v>
+        <v>0.83</v>
       </c>
       <c r="G694" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="H694" t="n">
         <v>0.8149999999999999</v>
       </c>
-      <c r="H694" t="n">
-        <v>0.835</v>
-      </c>
       <c r="I694" t="n">
-        <v>1159100</v>
+        <v>2635700</v>
       </c>
     </row>
     <row r="695">
       <c r="A695" t="n">
-        <v>1582070400</v>
+        <v>1580947200</v>
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>2020-02-19</t>
+          <t>2020-02-06</t>
         </is>
       </c>
       <c r="C695" t="inlineStr">
@@ -24690,28 +24690,28 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>0.83</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="F695" t="n">
         <v>0.84</v>
       </c>
       <c r="G695" t="n">
-        <v>0.825</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="H695" t="n">
-        <v>0.825</v>
+        <v>0.84</v>
       </c>
       <c r="I695" t="n">
-        <v>1924800</v>
+        <v>2171700</v>
       </c>
     </row>
     <row r="696">
       <c r="A696" t="n">
-        <v>1582156800</v>
+        <v>1581033600</v>
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>2020-02-20</t>
+          <t>2020-02-07</t>
         </is>
       </c>
       <c r="C696" t="inlineStr">
@@ -24725,28 +24725,28 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>0.825</v>
+        <v>0.84</v>
       </c>
       <c r="F696" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="G696" t="n">
         <v>0.8149999999999999</v>
       </c>
       <c r="H696" t="n">
-        <v>0.825</v>
+        <v>0.83</v>
       </c>
       <c r="I696" t="n">
-        <v>1947500</v>
+        <v>1757400</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" t="n">
-        <v>1582243200</v>
+        <v>1581292800</v>
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>2020-02-21</t>
+          <t>2020-02-10</t>
         </is>
       </c>
       <c r="C697" t="inlineStr">
@@ -24760,28 +24760,28 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>0.83</v>
+        <v>0.825</v>
       </c>
       <c r="F697" t="n">
-        <v>0.83</v>
+        <v>0.825</v>
       </c>
       <c r="G697" t="n">
-        <v>0.82</v>
+        <v>0.8</v>
       </c>
       <c r="H697" t="n">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="I697" t="n">
-        <v>617900</v>
+        <v>2494800</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" t="n">
-        <v>1582502400</v>
+        <v>1581379200</v>
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>2020-02-24</t>
+          <t>2020-02-11</t>
         </is>
       </c>
       <c r="C698" t="inlineStr">
@@ -24798,25 +24798,25 @@
         <v>0.8</v>
       </c>
       <c r="F698" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="G698" t="n">
-        <v>0.76</v>
+        <v>0.8</v>
       </c>
       <c r="H698" t="n">
-        <v>0.795</v>
+        <v>0.805</v>
       </c>
       <c r="I698" t="n">
-        <v>3054300</v>
+        <v>1142900</v>
       </c>
     </row>
     <row r="699">
       <c r="A699" t="n">
-        <v>1582588800</v>
+        <v>1581465600</v>
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>2020-02-25</t>
+          <t>2020-02-12</t>
         </is>
       </c>
       <c r="C699" t="inlineStr">
@@ -24830,28 +24830,28 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>0.77</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F699" t="n">
-        <v>0.805</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G699" t="n">
-        <v>0.755</v>
+        <v>0.79</v>
       </c>
       <c r="H699" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I699" t="n">
-        <v>2142800</v>
+        <v>1960100</v>
       </c>
     </row>
     <row r="700">
       <c r="A700" t="n">
-        <v>1582675200</v>
+        <v>1581552000</v>
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>2020-02-26</t>
+          <t>2020-02-13</t>
         </is>
       </c>
       <c r="C700" t="inlineStr">
@@ -24865,28 +24865,28 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>0.795</v>
+        <v>0.8</v>
       </c>
       <c r="F700" t="n">
-        <v>0.805</v>
+        <v>0.835</v>
       </c>
       <c r="G700" t="n">
         <v>0.785</v>
       </c>
       <c r="H700" t="n">
-        <v>0.805</v>
+        <v>0.83</v>
       </c>
       <c r="I700" t="n">
-        <v>707700</v>
+        <v>2733000</v>
       </c>
     </row>
     <row r="701">
       <c r="A701" t="n">
-        <v>1582761600</v>
+        <v>1581638400</v>
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>2020-02-27</t>
+          <t>2020-02-14</t>
         </is>
       </c>
       <c r="C701" t="inlineStr">
@@ -24900,28 +24900,28 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="F701" t="n">
-        <v>0.805</v>
+        <v>0.84</v>
       </c>
       <c r="G701" t="n">
-        <v>0.785</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="H701" t="n">
-        <v>0.795</v>
+        <v>0.83</v>
       </c>
       <c r="I701" t="n">
-        <v>1622200</v>
+        <v>2046800</v>
       </c>
     </row>
     <row r="702">
       <c r="A702" t="n">
-        <v>1582848000</v>
+        <v>1581897600</v>
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t>2020-02-28</t>
+          <t>2020-02-17</t>
         </is>
       </c>
       <c r="C702" t="inlineStr">
@@ -24935,28 +24935,28 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>0.78</v>
+        <v>0.825</v>
       </c>
       <c r="F702" t="n">
-        <v>0.78</v>
+        <v>0.845</v>
       </c>
       <c r="G702" t="n">
-        <v>0.72</v>
+        <v>0.825</v>
       </c>
       <c r="H702" t="n">
-        <v>0.77</v>
+        <v>0.83</v>
       </c>
       <c r="I702" t="n">
-        <v>2972300</v>
+        <v>719500</v>
       </c>
     </row>
     <row r="703">
       <c r="A703" t="n">
-        <v>1583107200</v>
+        <v>1581984000</v>
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="C703" t="inlineStr">
@@ -24970,28 +24970,28 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>0.765</v>
+        <v>0.835</v>
       </c>
       <c r="F703" t="n">
-        <v>0.77</v>
+        <v>0.835</v>
       </c>
       <c r="G703" t="n">
-        <v>0.745</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="H703" t="n">
-        <v>0.77</v>
+        <v>0.835</v>
       </c>
       <c r="I703" t="n">
-        <v>1503800</v>
+        <v>1159100</v>
       </c>
     </row>
     <row r="704">
       <c r="A704" t="n">
-        <v>1583193600</v>
+        <v>1582070400</v>
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>2020-03-03</t>
+          <t>2020-02-19</t>
         </is>
       </c>
       <c r="C704" t="inlineStr">
@@ -25005,28 +25005,28 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>0.775</v>
+        <v>0.83</v>
       </c>
       <c r="F704" t="n">
-        <v>0.785</v>
+        <v>0.84</v>
       </c>
       <c r="G704" t="n">
-        <v>0.76</v>
+        <v>0.825</v>
       </c>
       <c r="H704" t="n">
-        <v>0.765</v>
+        <v>0.825</v>
       </c>
       <c r="I704" t="n">
-        <v>1411500</v>
+        <v>1924800</v>
       </c>
     </row>
     <row r="705">
       <c r="A705" t="n">
-        <v>1583280000</v>
+        <v>1582156800</v>
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t>2020-03-04</t>
+          <t>2020-02-20</t>
         </is>
       </c>
       <c r="C705" t="inlineStr">
@@ -25040,28 +25040,28 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>0.75</v>
+        <v>0.825</v>
       </c>
       <c r="F705" t="n">
-        <v>0.76</v>
+        <v>0.83</v>
       </c>
       <c r="G705" t="n">
-        <v>0.745</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="H705" t="n">
-        <v>0.745</v>
+        <v>0.825</v>
       </c>
       <c r="I705" t="n">
-        <v>1398700</v>
+        <v>1947500</v>
       </c>
     </row>
     <row r="706">
       <c r="A706" t="n">
-        <v>1583366400</v>
+        <v>1582243200</v>
       </c>
       <c r="B706" t="inlineStr">
         <is>
-          <t>2020-03-05</t>
+          <t>2020-02-21</t>
         </is>
       </c>
       <c r="C706" t="inlineStr">
@@ -25075,28 +25075,28 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>0.76</v>
+        <v>0.83</v>
       </c>
       <c r="F706" t="n">
-        <v>0.765</v>
+        <v>0.83</v>
       </c>
       <c r="G706" t="n">
-        <v>0.725</v>
+        <v>0.82</v>
       </c>
       <c r="H706" t="n">
-        <v>0.735</v>
+        <v>0.83</v>
       </c>
       <c r="I706" t="n">
-        <v>2127200</v>
+        <v>617900</v>
       </c>
     </row>
     <row r="707">
       <c r="A707" t="n">
-        <v>1583452800</v>
+        <v>1582502400</v>
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>2020-03-06</t>
+          <t>2020-02-24</t>
         </is>
       </c>
       <c r="C707" t="inlineStr">
@@ -25110,28 +25110,28 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>0.735</v>
+        <v>0.8</v>
       </c>
       <c r="F707" t="n">
-        <v>0.735</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G707" t="n">
-        <v>0.71</v>
+        <v>0.76</v>
       </c>
       <c r="H707" t="n">
-        <v>0.71</v>
+        <v>0.795</v>
       </c>
       <c r="I707" t="n">
-        <v>3071000</v>
+        <v>3054300</v>
       </c>
     </row>
     <row r="708">
       <c r="A708" t="n">
-        <v>1583712000</v>
+        <v>1582588800</v>
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>2020-03-09</t>
+          <t>2020-02-25</t>
         </is>
       </c>
       <c r="C708" t="inlineStr">
@@ -25145,28 +25145,28 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.77</v>
       </c>
       <c r="F708" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.805</v>
       </c>
       <c r="G708" t="n">
-        <v>0.625</v>
+        <v>0.755</v>
       </c>
       <c r="H708" t="n">
-        <v>0.665</v>
+        <v>0.8</v>
       </c>
       <c r="I708" t="n">
-        <v>4962000</v>
+        <v>2142800</v>
       </c>
     </row>
     <row r="709">
       <c r="A709" t="n">
-        <v>1583798400</v>
+        <v>1582675200</v>
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t>2020-03-10</t>
+          <t>2020-02-26</t>
         </is>
       </c>
       <c r="C709" t="inlineStr">
@@ -25180,28 +25180,28 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>0.645</v>
+        <v>0.795</v>
       </c>
       <c r="F709" t="n">
-        <v>0.66</v>
+        <v>0.805</v>
       </c>
       <c r="G709" t="n">
-        <v>0.63</v>
+        <v>0.785</v>
       </c>
       <c r="H709" t="n">
-        <v>0.645</v>
+        <v>0.805</v>
       </c>
       <c r="I709" t="n">
-        <v>4481200</v>
+        <v>707700</v>
       </c>
     </row>
     <row r="710">
       <c r="A710" t="n">
-        <v>1583884800</v>
+        <v>1582761600</v>
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>2020-03-11</t>
+          <t>2020-02-27</t>
         </is>
       </c>
       <c r="C710" t="inlineStr">
@@ -25215,28 +25215,28 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>0.655</v>
+        <v>0.8</v>
       </c>
       <c r="F710" t="n">
-        <v>0.675</v>
+        <v>0.805</v>
       </c>
       <c r="G710" t="n">
-        <v>0.635</v>
+        <v>0.785</v>
       </c>
       <c r="H710" t="n">
-        <v>0.65</v>
+        <v>0.795</v>
       </c>
       <c r="I710" t="n">
-        <v>3043400</v>
+        <v>1622200</v>
       </c>
     </row>
     <row r="711">
       <c r="A711" t="n">
-        <v>1583971200</v>
+        <v>1582848000</v>
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>2020-03-12</t>
+          <t>2020-02-28</t>
         </is>
       </c>
       <c r="C711" t="inlineStr">
@@ -25250,53 +25250,368 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>0.64</v>
+        <v>0.78</v>
       </c>
       <c r="F711" t="n">
-        <v>0.64</v>
+        <v>0.78</v>
       </c>
       <c r="G711" t="n">
-        <v>0.585</v>
+        <v>0.72</v>
       </c>
       <c r="H711" t="n">
-        <v>0.585</v>
+        <v>0.77</v>
       </c>
       <c r="I711" t="n">
-        <v>4324700</v>
+        <v>2972300</v>
       </c>
     </row>
     <row r="712">
       <c r="A712" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B712" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C712" t="inlineStr">
+        <is>
+          <t>5283</t>
+        </is>
+      </c>
+      <c r="D712" t="inlineStr">
+        <is>
+          <t>EWINT</t>
+        </is>
+      </c>
+      <c r="E712" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="F712" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="G712" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="H712" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="I712" t="n">
+        <v>1503800</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B713" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C713" t="inlineStr">
+        <is>
+          <t>5283</t>
+        </is>
+      </c>
+      <c r="D713" t="inlineStr">
+        <is>
+          <t>EWINT</t>
+        </is>
+      </c>
+      <c r="E713" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="F713" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="G713" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="H713" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="I713" t="n">
+        <v>1411500</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B714" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C714" t="inlineStr">
+        <is>
+          <t>5283</t>
+        </is>
+      </c>
+      <c r="D714" t="inlineStr">
+        <is>
+          <t>EWINT</t>
+        </is>
+      </c>
+      <c r="E714" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F714" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="G714" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="H714" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="I714" t="n">
+        <v>1398700</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B715" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C715" t="inlineStr">
+        <is>
+          <t>5283</t>
+        </is>
+      </c>
+      <c r="D715" t="inlineStr">
+        <is>
+          <t>EWINT</t>
+        </is>
+      </c>
+      <c r="E715" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="F715" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="G715" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="H715" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="I715" t="n">
+        <v>2127200</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B716" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C716" t="inlineStr">
+        <is>
+          <t>5283</t>
+        </is>
+      </c>
+      <c r="D716" t="inlineStr">
+        <is>
+          <t>EWINT</t>
+        </is>
+      </c>
+      <c r="E716" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="F716" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="G716" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="H716" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="I716" t="n">
+        <v>3071000</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B717" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C717" t="inlineStr">
+        <is>
+          <t>5283</t>
+        </is>
+      </c>
+      <c r="D717" t="inlineStr">
+        <is>
+          <t>EWINT</t>
+        </is>
+      </c>
+      <c r="E717" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F717" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="G717" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="H717" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="I717" t="n">
+        <v>4962000</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B718" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C718" t="inlineStr">
+        <is>
+          <t>5283</t>
+        </is>
+      </c>
+      <c r="D718" t="inlineStr">
+        <is>
+          <t>EWINT</t>
+        </is>
+      </c>
+      <c r="E718" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="F718" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="G718" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="H718" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="I718" t="n">
+        <v>4481200</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B719" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C719" t="inlineStr">
+        <is>
+          <t>5283</t>
+        </is>
+      </c>
+      <c r="D719" t="inlineStr">
+        <is>
+          <t>EWINT</t>
+        </is>
+      </c>
+      <c r="E719" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="F719" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="G719" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="H719" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="I719" t="n">
+        <v>3043400</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B720" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C720" t="inlineStr">
+        <is>
+          <t>5283</t>
+        </is>
+      </c>
+      <c r="D720" t="inlineStr">
+        <is>
+          <t>EWINT</t>
+        </is>
+      </c>
+      <c r="E720" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F720" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="G720" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="H720" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="I720" t="n">
+        <v>4324700</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="n">
         <v>1584057600</v>
       </c>
-      <c r="B712" t="inlineStr">
+      <c r="B721" t="inlineStr">
         <is>
           <t>2020-03-13</t>
         </is>
       </c>
-      <c r="C712" t="inlineStr">
-        <is>
-          <t>5283</t>
-        </is>
-      </c>
-      <c r="D712" t="inlineStr">
-        <is>
-          <t>EWINT</t>
-        </is>
-      </c>
-      <c r="E712" t="n">
+      <c r="C721" t="inlineStr">
+        <is>
+          <t>5283</t>
+        </is>
+      </c>
+      <c r="D721" t="inlineStr">
+        <is>
+          <t>EWINT</t>
+        </is>
+      </c>
+      <c r="E721" t="n">
         <v>0.5</v>
       </c>
-      <c r="F712" t="n">
+      <c r="F721" t="n">
         <v>0.575</v>
       </c>
-      <c r="G712" t="n">
+      <c r="G721" t="n">
         <v>0.5</v>
       </c>
-      <c r="H712" t="n">
+      <c r="H721" t="n">
         <v>0.575</v>
       </c>
-      <c r="I712" t="n">
+      <c r="I721" t="n">
         <v>5286600</v>
       </c>
     </row>

--- a/data/5283.xlsx
+++ b/data/5283.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I721"/>
+  <dimension ref="A1:I722"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25615,6 +25615,41 @@
         <v>5286600</v>
       </c>
     </row>
+    <row r="722">
+      <c r="A722" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B722" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C722" t="inlineStr">
+        <is>
+          <t>5283</t>
+        </is>
+      </c>
+      <c r="D722" t="inlineStr">
+        <is>
+          <t>EWINT</t>
+        </is>
+      </c>
+      <c r="E722" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="F722" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="G722" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H722" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="I722" t="n">
+        <v>6828100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5283.xlsx
+++ b/data/5283.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I722"/>
+  <dimension ref="A1:I723"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25650,6 +25650,41 @@
         <v>6828100</v>
       </c>
     </row>
+    <row r="723">
+      <c r="A723" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B723" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C723" t="inlineStr">
+        <is>
+          <t>5283</t>
+        </is>
+      </c>
+      <c r="D723" t="inlineStr">
+        <is>
+          <t>EWINT</t>
+        </is>
+      </c>
+      <c r="E723" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="F723" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G723" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H723" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="I723" t="n">
+        <v>7649100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5283.xlsx
+++ b/data/5283.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I723"/>
+  <dimension ref="A1:I724"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25685,6 +25685,41 @@
         <v>7649100</v>
       </c>
     </row>
+    <row r="724">
+      <c r="A724" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B724" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C724" t="inlineStr">
+        <is>
+          <t>5283</t>
+        </is>
+      </c>
+      <c r="D724" t="inlineStr">
+        <is>
+          <t>EWINT</t>
+        </is>
+      </c>
+      <c r="E724" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="F724" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G724" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H724" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="I724" t="n">
+        <v>5064600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5283.xlsx
+++ b/data/5283.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I724"/>
+  <dimension ref="A1:I725"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25720,6 +25720,41 @@
         <v>5064600</v>
       </c>
     </row>
+    <row r="725">
+      <c r="A725" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B725" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C725" t="inlineStr">
+        <is>
+          <t>5283</t>
+        </is>
+      </c>
+      <c r="D725" t="inlineStr">
+        <is>
+          <t>EWINT</t>
+        </is>
+      </c>
+      <c r="E725" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="F725" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G725" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H725" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="I725" t="n">
+        <v>4829000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5283.xlsx
+++ b/data/5283.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I725"/>
+  <dimension ref="A1:I726"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25755,6 +25755,41 @@
         <v>4829000</v>
       </c>
     </row>
+    <row r="726">
+      <c r="A726" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B726" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C726" t="inlineStr">
+        <is>
+          <t>5283</t>
+        </is>
+      </c>
+      <c r="D726" t="inlineStr">
+        <is>
+          <t>EWINT</t>
+        </is>
+      </c>
+      <c r="E726" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F726" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G726" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H726" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="I726" t="n">
+        <v>3624100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5283.xlsx
+++ b/data/5283.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I726"/>
+  <dimension ref="A1:I727"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25790,6 +25790,41 @@
         <v>3624100</v>
       </c>
     </row>
+    <row r="727">
+      <c r="A727" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B727" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C727" t="inlineStr">
+        <is>
+          <t>5283</t>
+        </is>
+      </c>
+      <c r="D727" t="inlineStr">
+        <is>
+          <t>EWINT</t>
+        </is>
+      </c>
+      <c r="E727" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="F727" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="G727" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H727" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="I727" t="n">
+        <v>2427300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5283.xlsx
+++ b/data/5283.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I727"/>
+  <dimension ref="A1:I728"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25825,6 +25825,41 @@
         <v>2427300</v>
       </c>
     </row>
+    <row r="728">
+      <c r="A728" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B728" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C728" t="inlineStr">
+        <is>
+          <t>5283</t>
+        </is>
+      </c>
+      <c r="D728" t="inlineStr">
+        <is>
+          <t>EWINT</t>
+        </is>
+      </c>
+      <c r="E728" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F728" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="G728" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H728" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="I728" t="n">
+        <v>2677100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5283.xlsx
+++ b/data/5283.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I728"/>
+  <dimension ref="A1:I729"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25860,6 +25860,41 @@
         <v>2677100</v>
       </c>
     </row>
+    <row r="729">
+      <c r="A729" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B729" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C729" t="inlineStr">
+        <is>
+          <t>5283</t>
+        </is>
+      </c>
+      <c r="D729" t="inlineStr">
+        <is>
+          <t>EWINT</t>
+        </is>
+      </c>
+      <c r="E729" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="F729" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G729" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H729" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I729" t="n">
+        <v>4048300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5283.xlsx
+++ b/data/5283.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I729"/>
+  <dimension ref="A1:I730"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25895,6 +25895,41 @@
         <v>4048300</v>
       </c>
     </row>
+    <row r="730">
+      <c r="A730" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B730" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C730" t="inlineStr">
+        <is>
+          <t>5283</t>
+        </is>
+      </c>
+      <c r="D730" t="inlineStr">
+        <is>
+          <t>EWINT</t>
+        </is>
+      </c>
+      <c r="E730" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="F730" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G730" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="H730" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="I730" t="n">
+        <v>14603400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5283.xlsx
+++ b/data/5283.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I730"/>
+  <dimension ref="A1:I731"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25930,6 +25930,41 @@
         <v>14603400</v>
       </c>
     </row>
+    <row r="731">
+      <c r="A731" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B731" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C731" t="inlineStr">
+        <is>
+          <t>5283</t>
+        </is>
+      </c>
+      <c r="D731" t="inlineStr">
+        <is>
+          <t>EWINT</t>
+        </is>
+      </c>
+      <c r="E731" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="F731" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="G731" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="H731" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I731" t="n">
+        <v>15228600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5283.xlsx
+++ b/data/5283.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I731"/>
+  <dimension ref="A1:I732"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25965,6 +25965,41 @@
         <v>15228600</v>
       </c>
     </row>
+    <row r="732">
+      <c r="A732" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B732" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C732" t="inlineStr">
+        <is>
+          <t>5283</t>
+        </is>
+      </c>
+      <c r="D732" t="inlineStr">
+        <is>
+          <t>EWINT</t>
+        </is>
+      </c>
+      <c r="E732" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F732" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G732" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H732" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="I732" t="n">
+        <v>3728000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5283.xlsx
+++ b/data/5283.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I732"/>
+  <dimension ref="A1:I733"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26000,6 +26000,41 @@
         <v>3728000</v>
       </c>
     </row>
+    <row r="733">
+      <c r="A733" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B733" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C733" t="inlineStr">
+        <is>
+          <t>5283</t>
+        </is>
+      </c>
+      <c r="D733" t="inlineStr">
+        <is>
+          <t>EWINT</t>
+        </is>
+      </c>
+      <c r="E733" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F733" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G733" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="H733" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I733" t="n">
+        <v>3195900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5283.xlsx
+++ b/data/5283.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I733"/>
+  <dimension ref="A1:I734"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26035,6 +26035,41 @@
         <v>3195900</v>
       </c>
     </row>
+    <row r="734">
+      <c r="A734" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B734" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C734" t="inlineStr">
+        <is>
+          <t>5283</t>
+        </is>
+      </c>
+      <c r="D734" t="inlineStr">
+        <is>
+          <t>EWINT</t>
+        </is>
+      </c>
+      <c r="E734" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="F734" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="G734" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="H734" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="I734" t="n">
+        <v>4241200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5283.xlsx
+++ b/data/5283.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I734"/>
+  <dimension ref="A1:I735"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26070,6 +26070,41 @@
         <v>4241200</v>
       </c>
     </row>
+    <row r="735">
+      <c r="A735" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B735" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C735" t="inlineStr">
+        <is>
+          <t>5283</t>
+        </is>
+      </c>
+      <c r="D735" t="inlineStr">
+        <is>
+          <t>EWINT</t>
+        </is>
+      </c>
+      <c r="E735" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="F735" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="G735" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="H735" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="I735" t="n">
+        <v>2857000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5283.xlsx
+++ b/data/5283.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I735"/>
+  <dimension ref="A1:I736"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26105,6 +26105,41 @@
         <v>2857000</v>
       </c>
     </row>
+    <row r="736">
+      <c r="A736" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B736" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C736" t="inlineStr">
+        <is>
+          <t>5283</t>
+        </is>
+      </c>
+      <c r="D736" t="inlineStr">
+        <is>
+          <t>EWINT</t>
+        </is>
+      </c>
+      <c r="E736" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="F736" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G736" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="H736" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="I736" t="n">
+        <v>2098200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5283.xlsx
+++ b/data/5283.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I736"/>
+  <dimension ref="A1:I737"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26140,6 +26140,41 @@
         <v>2098200</v>
       </c>
     </row>
+    <row r="737">
+      <c r="A737" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B737" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C737" t="inlineStr">
+        <is>
+          <t>5283</t>
+        </is>
+      </c>
+      <c r="D737" t="inlineStr">
+        <is>
+          <t>EWINT</t>
+        </is>
+      </c>
+      <c r="E737" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F737" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="G737" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="H737" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="I737" t="n">
+        <v>4498000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5283.xlsx
+++ b/data/5283.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I737"/>
+  <dimension ref="A1:I738"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26175,6 +26175,41 @@
         <v>4498000</v>
       </c>
     </row>
+    <row r="738">
+      <c r="A738" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B738" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C738" t="inlineStr">
+        <is>
+          <t>5283</t>
+        </is>
+      </c>
+      <c r="D738" t="inlineStr">
+        <is>
+          <t>EWINT</t>
+        </is>
+      </c>
+      <c r="E738" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F738" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G738" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="H738" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I738" t="n">
+        <v>4727700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5283.xlsx
+++ b/data/5283.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I738"/>
+  <dimension ref="A1:I739"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26210,6 +26210,41 @@
         <v>4727700</v>
       </c>
     </row>
+    <row r="739">
+      <c r="A739" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B739" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C739" t="inlineStr">
+        <is>
+          <t>5283</t>
+        </is>
+      </c>
+      <c r="D739" t="inlineStr">
+        <is>
+          <t>EWINT</t>
+        </is>
+      </c>
+      <c r="E739" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F739" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G739" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="H739" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I739" t="n">
+        <v>7173600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5283.xlsx
+++ b/data/5283.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I739"/>
+  <dimension ref="A1:I740"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26245,6 +26245,41 @@
         <v>7173600</v>
       </c>
     </row>
+    <row r="740">
+      <c r="A740" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B740" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C740" t="inlineStr">
+        <is>
+          <t>5283</t>
+        </is>
+      </c>
+      <c r="D740" t="inlineStr">
+        <is>
+          <t>EWINT</t>
+        </is>
+      </c>
+      <c r="E740" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F740" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="G740" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="H740" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="I740" t="n">
+        <v>3308500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5283.xlsx
+++ b/data/5283.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I740"/>
+  <dimension ref="A1:I741"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26280,6 +26280,41 @@
         <v>3308500</v>
       </c>
     </row>
+    <row r="741">
+      <c r="A741" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B741" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C741" t="inlineStr">
+        <is>
+          <t>5283</t>
+        </is>
+      </c>
+      <c r="D741" t="inlineStr">
+        <is>
+          <t>EWINT</t>
+        </is>
+      </c>
+      <c r="E741" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F741" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G741" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="H741" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="I741" t="n">
+        <v>1973900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5283.xlsx
+++ b/data/5283.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I741"/>
+  <dimension ref="A1:I742"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26315,6 +26315,41 @@
         <v>1973900</v>
       </c>
     </row>
+    <row r="742">
+      <c r="A742" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B742" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C742" t="inlineStr">
+        <is>
+          <t>5283</t>
+        </is>
+      </c>
+      <c r="D742" t="inlineStr">
+        <is>
+          <t>EWINT</t>
+        </is>
+      </c>
+      <c r="E742" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="F742" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="G742" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="H742" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I742" t="n">
+        <v>1515900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5283.xlsx
+++ b/data/5283.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I742"/>
+  <dimension ref="A1:I743"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26350,6 +26350,41 @@
         <v>1515900</v>
       </c>
     </row>
+    <row r="743">
+      <c r="A743" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B743" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C743" t="inlineStr">
+        <is>
+          <t>5283</t>
+        </is>
+      </c>
+      <c r="D743" t="inlineStr">
+        <is>
+          <t>EWINT</t>
+        </is>
+      </c>
+      <c r="E743" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="F743" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G743" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="H743" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="I743" t="n">
+        <v>3703000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5283.xlsx
+++ b/data/5283.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I743"/>
+  <dimension ref="A1:I744"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26385,6 +26385,41 @@
         <v>3703000</v>
       </c>
     </row>
+    <row r="744">
+      <c r="A744" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B744" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C744" t="inlineStr">
+        <is>
+          <t>5283</t>
+        </is>
+      </c>
+      <c r="D744" t="inlineStr">
+        <is>
+          <t>EWINT</t>
+        </is>
+      </c>
+      <c r="E744" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="F744" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="G744" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H744" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="I744" t="n">
+        <v>4946400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5283.xlsx
+++ b/data/5283.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I744"/>
+  <dimension ref="A1:I745"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26420,6 +26420,41 @@
         <v>4946400</v>
       </c>
     </row>
+    <row r="745">
+      <c r="A745" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B745" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C745" t="inlineStr">
+        <is>
+          <t>5283</t>
+        </is>
+      </c>
+      <c r="D745" t="inlineStr">
+        <is>
+          <t>EWINT</t>
+        </is>
+      </c>
+      <c r="E745" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="F745" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="G745" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="H745" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I745" t="n">
+        <v>2266300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5283.xlsx
+++ b/data/5283.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I745"/>
+  <dimension ref="A1:I746"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26455,6 +26455,41 @@
         <v>2266300</v>
       </c>
     </row>
+    <row r="746">
+      <c r="A746" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B746" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C746" t="inlineStr">
+        <is>
+          <t>5283</t>
+        </is>
+      </c>
+      <c r="D746" t="inlineStr">
+        <is>
+          <t>EWINT</t>
+        </is>
+      </c>
+      <c r="E746" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="F746" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G746" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="H746" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I746" t="n">
+        <v>5599300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5283.xlsx
+++ b/data/5283.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I746"/>
+  <dimension ref="A1:I748"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26490,6 +26490,76 @@
         <v>5599300</v>
       </c>
     </row>
+    <row r="747">
+      <c r="A747" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B747" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C747" t="inlineStr">
+        <is>
+          <t>5283</t>
+        </is>
+      </c>
+      <c r="D747" t="inlineStr">
+        <is>
+          <t>EWINT</t>
+        </is>
+      </c>
+      <c r="E747" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F747" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="G747" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H747" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I747" t="n">
+        <v>10049400</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B748" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C748" t="inlineStr">
+        <is>
+          <t>9741</t>
+        </is>
+      </c>
+      <c r="D748" t="inlineStr">
+        <is>
+          <t>ROHAS</t>
+        </is>
+      </c>
+      <c r="E748" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="F748" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G748" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="H748" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="I748" t="n">
+        <v>3598900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5283.xlsx
+++ b/data/5283.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I748"/>
+  <dimension ref="A1:I749"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26560,6 +26560,41 @@
         <v>3598900</v>
       </c>
     </row>
+    <row r="749">
+      <c r="A749" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B749" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C749" t="inlineStr">
+        <is>
+          <t>5283</t>
+        </is>
+      </c>
+      <c r="D749" t="inlineStr">
+        <is>
+          <t>EWINT</t>
+        </is>
+      </c>
+      <c r="E749" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="F749" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G749" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H749" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I749" t="n">
+        <v>1725800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5283.xlsx
+++ b/data/5283.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I749"/>
+  <dimension ref="A1:I752"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26595,6 +26595,111 @@
         <v>1725800</v>
       </c>
     </row>
+    <row r="750">
+      <c r="A750" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B750" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C750" t="inlineStr">
+        <is>
+          <t>5283</t>
+        </is>
+      </c>
+      <c r="D750" t="inlineStr">
+        <is>
+          <t>EWINT</t>
+        </is>
+      </c>
+      <c r="E750" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F750" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G750" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="H750" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I750" t="n">
+        <v>4258900</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B751" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C751" t="inlineStr">
+        <is>
+          <t>5283</t>
+        </is>
+      </c>
+      <c r="D751" t="inlineStr">
+        <is>
+          <t>EWINT</t>
+        </is>
+      </c>
+      <c r="E751" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F751" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="G751" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="H751" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I751" t="n">
+        <v>12248900</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B752" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C752" t="inlineStr">
+        <is>
+          <t>5283</t>
+        </is>
+      </c>
+      <c r="D752" t="inlineStr">
+        <is>
+          <t>EWINT</t>
+        </is>
+      </c>
+      <c r="E752" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F752" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="G752" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H752" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="I752" t="n">
+        <v>2668700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5283.xlsx
+++ b/data/5283.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I752"/>
+  <dimension ref="A1:I753"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26700,6 +26700,41 @@
         <v>2668700</v>
       </c>
     </row>
+    <row r="753">
+      <c r="A753" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B753" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C753" t="inlineStr">
+        <is>
+          <t>5283</t>
+        </is>
+      </c>
+      <c r="D753" t="inlineStr">
+        <is>
+          <t>EWINT</t>
+        </is>
+      </c>
+      <c r="E753" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="F753" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="G753" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="H753" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I753" t="n">
+        <v>2778500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5283.xlsx
+++ b/data/5283.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I753"/>
+  <dimension ref="A1:I754"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26735,6 +26735,41 @@
         <v>2778500</v>
       </c>
     </row>
+    <row r="754">
+      <c r="A754" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B754" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C754" t="inlineStr">
+        <is>
+          <t>5283</t>
+        </is>
+      </c>
+      <c r="D754" t="inlineStr">
+        <is>
+          <t>EWINT</t>
+        </is>
+      </c>
+      <c r="E754" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F754" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="G754" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="H754" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I754" t="n">
+        <v>2806700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5283.xlsx
+++ b/data/5283.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I754"/>
+  <dimension ref="A1:I757"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26770,6 +26770,111 @@
         <v>2806700</v>
       </c>
     </row>
+    <row r="755">
+      <c r="A755" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B755" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C755" t="inlineStr">
+        <is>
+          <t>5283</t>
+        </is>
+      </c>
+      <c r="D755" t="inlineStr">
+        <is>
+          <t>EWINT</t>
+        </is>
+      </c>
+      <c r="E755" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F755" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="G755" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="H755" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="I755" t="n">
+        <v>6004100</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B756" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C756" t="inlineStr">
+        <is>
+          <t>5283</t>
+        </is>
+      </c>
+      <c r="D756" t="inlineStr">
+        <is>
+          <t>EWINT</t>
+        </is>
+      </c>
+      <c r="E756" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="F756" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G756" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="H756" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="I756" t="n">
+        <v>1698400</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B757" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C757" t="inlineStr">
+        <is>
+          <t>5283</t>
+        </is>
+      </c>
+      <c r="D757" t="inlineStr">
+        <is>
+          <t>EWINT</t>
+        </is>
+      </c>
+      <c r="E757" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="F757" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G757" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="H757" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I757" t="n">
+        <v>3259900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
